--- a/Proyecto/Investigadores y Hojas de Vida/Equipo.xlsx
+++ b/Proyecto/Investigadores y Hojas de Vida/Equipo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29103"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unbosqueeduco-my.sharepoint.com/personal/jleongomez_unbosque_edu_co/Documents/Research/Proyecto IDS/Proyecto/Investigadores y Hojas de Vida/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="186" documentId="11_F25DC773A252ABDACC1048AEA11E47925BDE58F6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{72498D5E-AA40-47C1-A4C2-19B19D2CEC29}"/>
+  <xr:revisionPtr revIDLastSave="209" documentId="11_F25DC773A252ABDACC1048AEA11E47925BDE58F6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C6CBC80C-3A1F-4AB3-B223-2B169602690B}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,160 +18,45 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Table2[#All]</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="52">
   <si>
     <t>Nombre</t>
   </si>
   <si>
+    <t>¿Vinculado/a a Universidad El Bosque?</t>
+  </si>
+  <si>
+    <t>Escalafón (olo si tiene vinculación  a UEB)</t>
+  </si>
+  <si>
+    <t>Grupo de Investigación UEB</t>
+  </si>
+  <si>
     <t>Afiliación</t>
   </si>
   <si>
     <t>Área de experticia</t>
-  </si>
-  <si>
-    <t>Experticia y formación relevantes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juan David Leongómez </t>
-  </si>
-  <si>
-    <t>Análisis de comportamiento</t>
-  </si>
-  <si>
-    <t>Milena Vásquez-Amézquita</t>
-  </si>
-  <si>
-    <t>Neurociencia</t>
-  </si>
-  <si>
-    <t>Nicolás Ignacio Ramos Rodríguez</t>
-  </si>
-  <si>
-    <t>Investigaciones Pediátricas Bosque</t>
-  </si>
-  <si>
-    <t>Pediatría</t>
-  </si>
-  <si>
-    <t>María Catalina Bagés Mesa</t>
-  </si>
-  <si>
-    <t>Bertha Patricia Calderón Ortiz</t>
-  </si>
-  <si>
-    <t>Jimena Varela Perez</t>
-  </si>
-  <si>
-    <t>Daniel Toro Avila</t>
-  </si>
-  <si>
-    <t>Adriana María Cristancho Arévalo</t>
-  </si>
-  <si>
-    <t>Lia Sanmiguel Ardila</t>
-  </si>
-  <si>
-    <t>Ana María Ángel Sanin</t>
-  </si>
-  <si>
-    <t>Diseño imagen y comunicación</t>
-  </si>
-  <si>
-    <t>Diseño y comunicación</t>
-  </si>
-  <si>
-    <t>Diana Obregón</t>
-  </si>
-  <si>
-    <t>Por definir</t>
-  </si>
-  <si>
-    <t>Educación e Investigación UNBOSQUE</t>
-  </si>
-  <si>
-    <t>Educación</t>
-  </si>
-  <si>
-    <t>Natalia Moreno-Buitrago</t>
-  </si>
-  <si>
-    <t>Externo</t>
-  </si>
-  <si>
-    <t>Desarrollo musical</t>
-  </si>
-  <si>
-    <t>David A. Puts</t>
-  </si>
-  <si>
-    <t>Evolución comportamental</t>
-  </si>
-  <si>
-    <t>Doctor en antropología biológica, experto en endocrinología comportamental, evolución comportamental, y diferencias de sexo en humanos, con énfasis en análisis acústico.</t>
-  </si>
-  <si>
-    <t>Facultad de Psicología
-Universidad El Bosque</t>
-  </si>
-  <si>
-    <t>Facultad de Medicina
-Universidad El Bosque</t>
-  </si>
-  <si>
-    <t>Facultad de Creación y Comunicación
-Universidad El Bosque</t>
-  </si>
-  <si>
-    <t>Facultad de Educación
-Universidad El Bosque</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Doctora en neurociencias, experta en </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>eye-tracking</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> y estudios experimentales en neurociencia cognitivo‑afectiva.</t>
-    </r>
-  </si>
-  <si>
-    <t>Candidata Doctoral
-School of Music
-Ohio State University
-Estados Unidos</t>
-  </si>
-  <si>
-    <t>Profesor Titular
-Departamentio de Antropología
-Pennsylvania State University
-Estados Unidos</t>
   </si>
   <si>
     <r>
@@ -208,34 +93,169 @@
     </r>
   </si>
   <si>
+    <t>Experticia y formación relevantes</t>
+  </si>
+  <si>
+    <t>Funciones en el proyecto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juan David Leongómez </t>
+  </si>
+  <si>
+    <t>Profesor Asociado</t>
+  </si>
+  <si>
+    <t>CODEC: Ciencias Cognitivas y del Comportamiento</t>
+  </si>
+  <si>
+    <t>Facultad de Psicología
+Universidad El Bosque</t>
+  </si>
+  <si>
+    <t>Análisis de comportamiento</t>
+  </si>
+  <si>
     <t>Doctor en psicología con énfasis en ciencias evolutivas del comportamiento, experto en modulación vocal, análisis acústico y modelamiento estadístico.</t>
   </si>
   <si>
-    <t>Grupo de Investigación UEB</t>
+    <t>Diseño, análisis y modelado estadístico, manipulación acústica, análisis acústico, supervisión general</t>
+  </si>
+  <si>
+    <t>Milena Vásquez-Amézquita</t>
+  </si>
+  <si>
+    <t>Neurociencia</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Doctora en neurociencias, experta en </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>eye-tracking</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> y estudios experimentales en neurociencia cognitivo‑afectiva.</t>
+    </r>
+  </si>
+  <si>
+    <t>Diseño, planeación y análisis de resultados de eye-tracking</t>
+  </si>
+  <si>
+    <t>Nicolás Ignacio Ramos Rodríguez</t>
   </si>
   <si>
     <t>??</t>
   </si>
   <si>
-    <t>¿Vinculado/a a Universidad El Bosque?</t>
-  </si>
-  <si>
-    <t>Funciones en el proyecto</t>
+    <t>Investigaciones Pediátricas Bosque</t>
+  </si>
+  <si>
+    <t>Facultad de Medicina
+Universidad El Bosque</t>
+  </si>
+  <si>
+    <t>Pediatría</t>
+  </si>
+  <si>
+    <t>María Catalina Bagés Mesa</t>
+  </si>
+  <si>
+    <t>Bertha Patricia Calderón Ortiz</t>
+  </si>
+  <si>
+    <t>Jimena Varela Perez</t>
+  </si>
+  <si>
+    <t>Daniel Toro Avila</t>
+  </si>
+  <si>
+    <t>Adriana María Cristancho Arévalo</t>
+  </si>
+  <si>
+    <t>Lia Sanmiguel Ardila</t>
+  </si>
+  <si>
+    <t>Ana María Ángel Sanin</t>
+  </si>
+  <si>
+    <t>Diseño imagen y comunicación</t>
+  </si>
+  <si>
+    <t>Facultad de Creación y Comunicación
+Universidad El Bosque</t>
+  </si>
+  <si>
+    <t>Diseño y comunicación</t>
+  </si>
+  <si>
+    <t>Diana Obregón</t>
+  </si>
+  <si>
+    <t>Por definir</t>
+  </si>
+  <si>
+    <t>Educación e Investigación UNBOSQUE</t>
+  </si>
+  <si>
+    <t>Facultad de Educación
+Universidad El Bosque</t>
+  </si>
+  <si>
+    <t>Educación</t>
+  </si>
+  <si>
+    <t>Natalia Moreno-Buitrago</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Externo</t>
+  </si>
+  <si>
+    <t>Candidata Doctoral
+School of Music
+Ohio State University
+Estados Unidos</t>
+  </si>
+  <si>
+    <t>Desarrollo musical</t>
+  </si>
+  <si>
+    <t>Bióloga y pedagoga musical. En su doctorado estudia el desarrollo de los comportamientos musicales y cómo se moldean desde la infancia.</t>
   </si>
   <si>
     <t>Apoyo para la medición de habilidades musicales y lingüísticas en niñas y nilos de 3 a 4 años</t>
   </si>
   <si>
-    <t>Diseño, planeación y análisis de resultados de eye-tracking</t>
-  </si>
-  <si>
-    <t>Diseño, análisis y modelado estadístico, manipulación acústica, análisis acústico, supervisión general</t>
-  </si>
-  <si>
-    <t>Bióloga y pedagoga musical. En su doctorado estudia el desarrollo de los comportamientos musicales y cómo se moldean desde la infancia.</t>
-  </si>
-  <si>
-    <t>CODEC: Ciencias Cognitivas y del Comportamiento</t>
+    <t>David A. Puts</t>
+  </si>
+  <si>
+    <t>Profesor Titular
+Departamentio de Antropología
+Pennsylvania State University
+Estados Unidos</t>
+  </si>
+  <si>
+    <t>Evolución comportamental</t>
+  </si>
+  <si>
+    <t>Doctor en antropología biológica, experto en endocrinología comportamental, evolución comportamental, y diferencias de sexo en humanos, con énfasis en análisis acústico.</t>
   </si>
   <si>
     <t>Apoyo al diseño general, análisis y manipulación acústica</t>
@@ -245,7 +265,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -427,21 +447,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -453,13 +473,10 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <extLst>
         <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{C7286773-470A-42A8-94C5-96B5CB345126}">
@@ -470,7 +487,7 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -487,7 +504,7 @@
         </ext>
       </extLst>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <extLst>
         <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{C7286773-470A-42A8-94C5-96B5CB345126}">
@@ -498,12 +515,50 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="13">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -547,6 +602,195 @@
       <extLst>
         <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{0417FA29-78FA-4A13-93AC-8FF0FAFDF519}">
           <xfpb:DXFComplement i="0"/>
+        </ext>
+      </extLst>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <extLst>
+        <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{0417FA29-78FA-4A13-93AC-8FF0FAFDF519}">
+          <xfpb:DXFComplement i="1"/>
         </ext>
       </extLst>
     </dxf>
@@ -605,6 +849,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -618,6 +868,20 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color rgb="FF000000"/>
+        </top>
       </border>
     </dxf>
     <dxf>
@@ -631,26 +895,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -687,181 +931,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="medium">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="medium">
-          <color rgb="FF000000"/>
-        </top>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -894,9 +963,14 @@
       <bagId>2</bagId>
     </a>
   </bag>
+  <bag type="XFControls"/>
+  <bag type="XFComplement">
+    <bagId k="XFControls">4</bagId>
+  </bag>
   <bag type="DXFComplements" extRef="DXFComplementsMapperExtRef">
     <a k="MappedFeaturePropertyBags">
       <bagId>2</bagId>
+      <bagId>5</bagId>
     </a>
   </bag>
 </FeaturePropertyBags>
@@ -905,23 +979,24 @@
 <file path=xl/namedSheetViews/namedSheetView1.xml><?xml version="1.0" encoding="utf-8"?>
 <namedSheetViews xmlns="http://schemas.microsoft.com/office/spreadsheetml/2019/namedsheetviews" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <namedSheetView name="View1" id="{BFBF76A3-6B92-422A-A127-E7C554C462B6}">
-    <nsvFilter filterId="{47312F7A-547A-4F0B-93CB-2465DECF0052}" ref="A1:H15" tableId="2"/>
+    <nsvFilter filterId="{47312F7A-547A-4F0B-93CB-2465DECF0052}" ref="A1:I15" tableId="2"/>
   </namedSheetView>
 </namedSheetViews>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{47312F7A-547A-4F0B-93CB-2465DECF0052}" name="Table2" displayName="Table2" ref="A1:H15" totalsRowShown="0" headerRowDxfId="4" dataDxfId="8" headerRowBorderDxfId="10" tableBorderDxfId="11">
-  <autoFilter ref="A1:H15" xr:uid="{47312F7A-547A-4F0B-93CB-2465DECF0052}"/>
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{CBE926E6-CA94-4D1D-8861-D88C4BDF8319}" name="Nombre" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{9FF25A8F-1632-449B-B0EA-64A42CE0FCC9}" name="¿Vinculado/a a Universidad El Bosque?" dataDxfId="1" dataCellStyle="Hyperlink"/>
-    <tableColumn id="2" xr3:uid="{97992357-7905-421E-8442-3A19646EED47}" name="Grupo de Investigación UEB" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{7CCDB552-A2C4-47E1-A2DD-E278BE5EE7A3}" name="Afiliación" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{9EF7D58A-EFEE-418D-9857-812A63D5E535}" name="Área de experticia" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{EBB00359-FA2C-4391-AD36-06CDDC098B78}" name="Hoja de Vida_x000a_(agregar PDF a esta carpeta)" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{18C0D0E2-C0F1-42CA-ADA2-1520B313B6CA}" name="Experticia y formación relevantes" dataDxfId="0"/>
-    <tableColumn id="5" xr3:uid="{324113BD-A453-4F36-ABA5-0E1DCC66FDFC}" name="Funciones en el proyecto" dataDxfId="6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{47312F7A-547A-4F0B-93CB-2465DECF0052}" name="Table2" displayName="Table2" ref="A1:I15" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11" headerRowBorderDxfId="9" tableBorderDxfId="10">
+  <autoFilter ref="A1:I15" xr:uid="{47312F7A-547A-4F0B-93CB-2465DECF0052}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{CBE926E6-CA94-4D1D-8861-D88C4BDF8319}" name="Nombre" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{9FF25A8F-1632-449B-B0EA-64A42CE0FCC9}" name="¿Vinculado/a a Universidad El Bosque?" dataDxfId="7" dataCellStyle="Hyperlink"/>
+    <tableColumn id="9" xr3:uid="{9932D20C-4607-4B9E-A778-17B02C4DD9A8}" name="Escalafón (olo si tiene vinculación  a UEB)" dataDxfId="6" dataCellStyle="Hyperlink"/>
+    <tableColumn id="2" xr3:uid="{97992357-7905-421E-8442-3A19646EED47}" name="Grupo de Investigación UEB" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{7CCDB552-A2C4-47E1-A2DD-E278BE5EE7A3}" name="Afiliación" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{9EF7D58A-EFEE-418D-9857-812A63D5E535}" name="Área de experticia" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{EBB00359-FA2C-4391-AD36-06CDDC098B78}" name="Hoja de Vida_x000a_(agregar PDF a esta carpeta)" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{18C0D0E2-C0F1-42CA-ADA2-1520B313B6CA}" name="Experticia y formación relevantes" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{324113BD-A453-4F36-ABA5-0E1DCC66FDFC}" name="Funciones en el proyecto" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1190,372 +1265,410 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A13" sqref="A4:A13"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="33.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="19.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" customWidth="1"/>
-    <col min="3" max="3" width="35.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.7109375" customWidth="1"/>
-    <col min="7" max="7" width="23.5703125" customWidth="1"/>
-    <col min="8" max="8" width="25.140625" customWidth="1"/>
+    <col min="5" max="5" width="25.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="24" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:9" ht="37.5">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="69.75">
+      <c r="A2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="60">
+      <c r="A3" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="23.25">
+      <c r="A4" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+    </row>
+    <row r="5" spans="1:9" ht="23.25">
+      <c r="A5" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+    </row>
+    <row r="6" spans="1:9" ht="23.25">
+      <c r="A6" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+    </row>
+    <row r="9" spans="1:9" ht="23.25">
+      <c r="A9" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+    </row>
+    <row r="11" spans="1:9" ht="23.25">
+      <c r="A11" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+    </row>
+    <row r="12" spans="1:9" ht="23.25">
+      <c r="A12" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="1:9" ht="23.25">
+      <c r="A13" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+    </row>
+    <row r="14" spans="1:9" ht="69.75">
+      <c r="A14" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="C14" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" s="14" t="s">
+      <c r="D14" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="92.25">
+      <c r="A15" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="E1" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="67.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-    </row>
-    <row r="5" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-    </row>
-    <row r="6" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-    </row>
-    <row r="11" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-    </row>
-    <row r="12" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-    </row>
-    <row r="13" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-    </row>
-    <row r="14" spans="1:8" ht="67.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F14" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F15" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>29</v>
-      </c>
       <c r="H15" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1572,7 +1685,7 @@
     <hyperlink ref="A12" r:id="rId10" tooltip="https://www.researchgate.net/profile/Diana-Obregon-6" display="https://www.researchgate.net/profile/Diana-Obregon-6" xr:uid="{7EEDB962-597B-42CB-97ED-7D4380577EF6}"/>
     <hyperlink ref="A14" r:id="rId11" tooltip="https://music.osu.edu/people/morenobuitrago.1" display="https://music.osu.edu/people/morenobuitrago.1" xr:uid="{302796FD-8283-4AED-9016-9B5129B4B1A6}"/>
     <hyperlink ref="A15" r:id="rId12" tooltip="https://beel.la.psu.edu/labstaff/" display="https://beel.la.psu.edu/labstaff/" xr:uid="{AB215533-3ECF-45BB-BD5B-2356FF2CC1B4}"/>
-    <hyperlink ref="F1" r:id="rId13" display="../../../../../../../:f:/g/personal/jleongomez_unbosque_edu_co/EvkI-nvgfplAo6If15j514wBMNKexevxx3wLN_5Ao4Ck1Q?e=M4Exdy" xr:uid="{DC05F3E5-07C0-4732-883C-6E51783348A4}"/>
+    <hyperlink ref="G1" r:id="rId13" display="../../../../../../../:f:/g/personal/jleongomez_unbosque_edu_co/EvkI-nvgfplAo6If15j514wBMNKexevxx3wLN_5Ao4Ck1Q?e=M4Exdy" xr:uid="{DC05F3E5-07C0-4732-883C-6E51783348A4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="43" orientation="portrait" r:id="rId14"/>
